--- a/targetstoresitepractice/testData/testusers.xlsx
+++ b/targetstoresitepractice/testData/testusers.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="QA" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="PROD" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>USERNAME</t>
   </si>
   <si>
     <t>USERPASSWORD</t>
+  </si>
+  <si>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>is_awesome</t>
   </si>
   <si>
     <t>testuser</t>
@@ -29,12 +36,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -54,11 +62,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -70,6 +81,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -281,18 +296,52 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="17.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
